--- a/FAO-dsd/DSD_FI_FBS.xlsx
+++ b/FAO-dsd/DSD_FI_FBS.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USR\Manuals\2016\FIPS\SDMX\DSD\"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -595,7 +595,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +783,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>42</v>
